--- a/TemperatureData/BirdsOfVT/Birds_of_VT_2024.xlsx
+++ b/TemperatureData/BirdsOfVT/Birds_of_VT_2024.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uvmoffice.sharepoint.com/sites/TeamMosher/Shared Documents/General/People/Scott, Reed/VTADS/HoboLoggerData/BirdsOfVT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\gitrepos\VTADS\TemperatureData\BirdsOfVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{2A09818E-F2FA-467F-9A6F-D41BE7AC6219}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF58E691-FDA2-46F7-AC61-C47CAD051039}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" xr2:uid="{C261FA05-B051-4054-8D00-3064C1D3CE2C}"/>
+    <workbookView xWindow="23880" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{C261FA05-B051-4054-8D00-3064C1D3CE2C}"/>
   </bookViews>
   <sheets>
     <sheet name="Birds_of_VT_2024" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Plot Title: Birds of VT</t>
   </si>
@@ -51,9 +51,6 @@
   </si>
   <si>
     <t>End Of File (LGR S/N: 21422124)</t>
-  </si>
-  <si>
-    <t>Logged</t>
   </si>
   <si>
     <t>#Collected at 12:21</t>
@@ -918,11 +915,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{629D67B5-68B3-4884-B329-86033BD2C8BC}">
-  <dimension ref="A1:I5464"/>
+  <dimension ref="A1:I5380"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A5360" workbookViewId="0">
+      <selection activeCell="A5464" sqref="A5381:XFD5464"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -76248,1176 +76250,6 @@
       </c>
       <c r="D5380">
         <v>28</v>
-      </c>
-    </row>
-    <row r="5381" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5381">
-        <v>5379</v>
-      </c>
-      <c r="B5381" s="1">
-        <v>45490.520833333336</v>
-      </c>
-      <c r="C5381">
-        <v>81.266000000000005</v>
-      </c>
-      <c r="D5381">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5382" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5382">
-        <v>5380</v>
-      </c>
-      <c r="B5382" s="1">
-        <v>45490.53125</v>
-      </c>
-      <c r="C5382">
-        <v>80.206000000000003</v>
-      </c>
-      <c r="D5382">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5383" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5383">
-        <v>5381</v>
-      </c>
-      <c r="B5383" s="1">
-        <v>45490.541666666664</v>
-      </c>
-      <c r="C5383">
-        <v>75.831999999999994</v>
-      </c>
-      <c r="D5383">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5384" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5384">
-        <v>5382</v>
-      </c>
-      <c r="B5384" s="1">
-        <v>45490.552083333336</v>
-      </c>
-      <c r="C5384">
-        <v>76.703000000000003</v>
-      </c>
-      <c r="D5384">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5385" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5385">
-        <v>5383</v>
-      </c>
-      <c r="B5385" s="1">
-        <v>45490.5625</v>
-      </c>
-      <c r="C5385">
-        <v>83.757000000000005</v>
-      </c>
-      <c r="D5385">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5386" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5386">
-        <v>5384</v>
-      </c>
-      <c r="B5386" s="1">
-        <v>45490.572916666664</v>
-      </c>
-      <c r="C5386">
-        <v>78.274000000000001</v>
-      </c>
-      <c r="D5386">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5387" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5387">
-        <v>5385</v>
-      </c>
-      <c r="B5387" s="1">
-        <v>45490.583333333336</v>
-      </c>
-      <c r="C5387">
-        <v>75.659000000000006</v>
-      </c>
-      <c r="D5387">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5388" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5388">
-        <v>5386</v>
-      </c>
-      <c r="B5388" s="1">
-        <v>45490.59375</v>
-      </c>
-      <c r="C5388">
-        <v>74.619</v>
-      </c>
-      <c r="D5388">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5389" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5389">
-        <v>5387</v>
-      </c>
-      <c r="B5389" s="1">
-        <v>45490.604166666664</v>
-      </c>
-      <c r="C5389">
-        <v>74.097999999999999</v>
-      </c>
-      <c r="D5389">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5390" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5390">
-        <v>5388</v>
-      </c>
-      <c r="B5390" s="1">
-        <v>45490.614583333336</v>
-      </c>
-      <c r="C5390">
-        <v>73.753</v>
-      </c>
-      <c r="D5390">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5391" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5391">
-        <v>5389</v>
-      </c>
-      <c r="B5391" s="1">
-        <v>45490.625</v>
-      </c>
-      <c r="C5391">
-        <v>73.58</v>
-      </c>
-      <c r="D5391">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5392" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5392">
-        <v>5390</v>
-      </c>
-      <c r="B5392" s="1">
-        <v>45490.635416666664</v>
-      </c>
-      <c r="C5392">
-        <v>73.233999999999995</v>
-      </c>
-      <c r="D5392">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5393" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5393">
-        <v>5391</v>
-      </c>
-      <c r="B5393" s="1">
-        <v>45490.645833333336</v>
-      </c>
-      <c r="C5393">
-        <v>77.748999999999995</v>
-      </c>
-      <c r="D5393">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5394" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5394">
-        <v>5392</v>
-      </c>
-      <c r="B5394" s="1">
-        <v>45490.65625</v>
-      </c>
-      <c r="C5394">
-        <v>80.734999999999999</v>
-      </c>
-      <c r="D5394">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5395" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5395">
-        <v>5393</v>
-      </c>
-      <c r="B5395" s="1">
-        <v>45490.666666666664</v>
-      </c>
-      <c r="C5395">
-        <v>82.864000000000004</v>
-      </c>
-      <c r="D5395">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5396" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5396">
-        <v>5394</v>
-      </c>
-      <c r="B5396" s="1">
-        <v>45490.677083333336</v>
-      </c>
-      <c r="C5396">
-        <v>84.295000000000002</v>
-      </c>
-      <c r="D5396">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5397" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5397">
-        <v>5395</v>
-      </c>
-      <c r="B5397" s="1">
-        <v>45490.6875</v>
-      </c>
-      <c r="C5397">
-        <v>85.373999999999995</v>
-      </c>
-      <c r="D5397">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5398" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5398">
-        <v>5396</v>
-      </c>
-      <c r="B5398" s="1">
-        <v>45490.697916666664</v>
-      </c>
-      <c r="C5398">
-        <v>85.013999999999996</v>
-      </c>
-      <c r="D5398">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5399" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5399">
-        <v>5397</v>
-      </c>
-      <c r="B5399" s="1">
-        <v>45490.708333333336</v>
-      </c>
-      <c r="C5399">
-        <v>79.501999999999995</v>
-      </c>
-      <c r="D5399">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5400" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5400">
-        <v>5398</v>
-      </c>
-      <c r="B5400" s="1">
-        <v>45490.71875</v>
-      </c>
-      <c r="C5400">
-        <v>79.852999999999994</v>
-      </c>
-      <c r="D5400">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5401" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5401">
-        <v>5399</v>
-      </c>
-      <c r="B5401" s="1">
-        <v>45490.729166666664</v>
-      </c>
-      <c r="C5401">
-        <v>79.677999999999997</v>
-      </c>
-      <c r="D5401">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5402" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5402">
-        <v>5400</v>
-      </c>
-      <c r="B5402" s="1">
-        <v>45490.739583333336</v>
-      </c>
-      <c r="C5402">
-        <v>79.501999999999995</v>
-      </c>
-      <c r="D5402">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5403" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5403">
-        <v>5401</v>
-      </c>
-      <c r="B5403" s="1">
-        <v>45490.75</v>
-      </c>
-      <c r="C5403">
-        <v>79.325999999999993</v>
-      </c>
-      <c r="D5403">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5404" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5404">
-        <v>5402</v>
-      </c>
-      <c r="B5404" s="1">
-        <v>45490.760416666664</v>
-      </c>
-      <c r="C5404">
-        <v>79.150999999999996</v>
-      </c>
-      <c r="D5404">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5405" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5405">
-        <v>5403</v>
-      </c>
-      <c r="B5405" s="1">
-        <v>45490.770833333336</v>
-      </c>
-      <c r="C5405">
-        <v>79.325999999999993</v>
-      </c>
-      <c r="D5405">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5406" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5406">
-        <v>5404</v>
-      </c>
-      <c r="B5406" s="1">
-        <v>45490.78125</v>
-      </c>
-      <c r="C5406">
-        <v>79.150999999999996</v>
-      </c>
-      <c r="D5406">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5407" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5407">
-        <v>5405</v>
-      </c>
-      <c r="B5407" s="1">
-        <v>45490.791666666664</v>
-      </c>
-      <c r="C5407">
-        <v>79.150999999999996</v>
-      </c>
-      <c r="D5407">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5408" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5408">
-        <v>5406</v>
-      </c>
-      <c r="B5408" s="1">
-        <v>45490.802083333336</v>
-      </c>
-      <c r="C5408">
-        <v>79.150999999999996</v>
-      </c>
-      <c r="D5408">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5409" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5409">
-        <v>5407</v>
-      </c>
-      <c r="B5409" s="1">
-        <v>45490.8125</v>
-      </c>
-      <c r="C5409">
-        <v>79.150999999999996</v>
-      </c>
-      <c r="D5409">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5410" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5410">
-        <v>5408</v>
-      </c>
-      <c r="B5410" s="1">
-        <v>45490.822916666664</v>
-      </c>
-      <c r="C5410">
-        <v>79.150999999999996</v>
-      </c>
-      <c r="D5410">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5411" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5411">
-        <v>5409</v>
-      </c>
-      <c r="B5411" s="1">
-        <v>45490.833333333336</v>
-      </c>
-      <c r="C5411">
-        <v>79.150999999999996</v>
-      </c>
-      <c r="D5411">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5412" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5412">
-        <v>5410</v>
-      </c>
-      <c r="B5412" s="1">
-        <v>45490.84375</v>
-      </c>
-      <c r="C5412">
-        <v>79.150999999999996</v>
-      </c>
-      <c r="D5412">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5413" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5413">
-        <v>5411</v>
-      </c>
-      <c r="B5413" s="1">
-        <v>45490.854166666664</v>
-      </c>
-      <c r="C5413">
-        <v>77.923000000000002</v>
-      </c>
-      <c r="D5413">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5414" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5414">
-        <v>5412</v>
-      </c>
-      <c r="B5414" s="1">
-        <v>45490.864583333336</v>
-      </c>
-      <c r="C5414">
-        <v>76.528000000000006</v>
-      </c>
-      <c r="D5414">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5415" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5415">
-        <v>5413</v>
-      </c>
-      <c r="B5415" s="1">
-        <v>45490.875</v>
-      </c>
-      <c r="C5415">
-        <v>75.831999999999994</v>
-      </c>
-      <c r="D5415">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5416" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5416">
-        <v>5414</v>
-      </c>
-      <c r="B5416" s="1">
-        <v>45490.885416666664</v>
-      </c>
-      <c r="C5416">
-        <v>75.138999999999996</v>
-      </c>
-      <c r="D5416">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5417" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5417">
-        <v>5415</v>
-      </c>
-      <c r="B5417" s="1">
-        <v>45490.895833333336</v>
-      </c>
-      <c r="C5417">
-        <v>74.619</v>
-      </c>
-      <c r="D5417">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5418" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5418">
-        <v>5416</v>
-      </c>
-      <c r="B5418" s="1">
-        <v>45490.90625</v>
-      </c>
-      <c r="C5418">
-        <v>74.097999999999999</v>
-      </c>
-      <c r="D5418">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5419" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5419">
-        <v>5417</v>
-      </c>
-      <c r="B5419" s="1">
-        <v>45490.916666666664</v>
-      </c>
-      <c r="C5419">
-        <v>73.926000000000002</v>
-      </c>
-      <c r="D5419">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5420" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5420">
-        <v>5418</v>
-      </c>
-      <c r="B5420" s="1">
-        <v>45490.927083333336</v>
-      </c>
-      <c r="C5420">
-        <v>74.097999999999999</v>
-      </c>
-      <c r="D5420">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5421" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5421">
-        <v>5419</v>
-      </c>
-      <c r="B5421" s="1">
-        <v>45490.9375</v>
-      </c>
-      <c r="C5421">
-        <v>74.097999999999999</v>
-      </c>
-      <c r="D5421">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5422" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5422">
-        <v>5420</v>
-      </c>
-      <c r="B5422" s="1">
-        <v>45490.947916666664</v>
-      </c>
-      <c r="C5422">
-        <v>74.097999999999999</v>
-      </c>
-      <c r="D5422">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5423" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5423">
-        <v>5421</v>
-      </c>
-      <c r="B5423" s="1">
-        <v>45490.958333333336</v>
-      </c>
-      <c r="C5423">
-        <v>74.097999999999999</v>
-      </c>
-      <c r="D5423">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5424" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5424">
-        <v>5422</v>
-      </c>
-      <c r="B5424" s="1">
-        <v>45490.96875</v>
-      </c>
-      <c r="C5424">
-        <v>74.097999999999999</v>
-      </c>
-      <c r="D5424">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5425" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5425">
-        <v>5423</v>
-      </c>
-      <c r="B5425" s="1">
-        <v>45490.979166666664</v>
-      </c>
-      <c r="C5425">
-        <v>73.926000000000002</v>
-      </c>
-      <c r="D5425">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5426" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5426">
-        <v>5424</v>
-      </c>
-      <c r="B5426" s="1">
-        <v>45490.989583333336</v>
-      </c>
-      <c r="C5426">
-        <v>73.753</v>
-      </c>
-      <c r="D5426">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5427" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5427">
-        <v>5425</v>
-      </c>
-      <c r="B5427" s="1">
-        <v>45491</v>
-      </c>
-      <c r="C5427">
-        <v>73.753</v>
-      </c>
-      <c r="D5427">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5428" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5428">
-        <v>5426</v>
-      </c>
-      <c r="B5428" s="1">
-        <v>45491.010416666664</v>
-      </c>
-      <c r="C5428">
-        <v>73.753</v>
-      </c>
-      <c r="D5428">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5429" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5429">
-        <v>5427</v>
-      </c>
-      <c r="B5429" s="1">
-        <v>45491.020833333336</v>
-      </c>
-      <c r="C5429">
-        <v>73.58</v>
-      </c>
-      <c r="D5429">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5430" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5430">
-        <v>5428</v>
-      </c>
-      <c r="B5430" s="1">
-        <v>45491.03125</v>
-      </c>
-      <c r="C5430">
-        <v>73.406999999999996</v>
-      </c>
-      <c r="D5430">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5431" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5431">
-        <v>5429</v>
-      </c>
-      <c r="B5431" s="1">
-        <v>45491.041666666664</v>
-      </c>
-      <c r="C5431">
-        <v>73.061999999999998</v>
-      </c>
-      <c r="D5431">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5432" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5432">
-        <v>5430</v>
-      </c>
-      <c r="B5432" s="1">
-        <v>45491.052083333336</v>
-      </c>
-      <c r="C5432">
-        <v>73.061999999999998</v>
-      </c>
-      <c r="D5432">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5433" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5433">
-        <v>5431</v>
-      </c>
-      <c r="B5433" s="1">
-        <v>45491.0625</v>
-      </c>
-      <c r="C5433">
-        <v>72.891000000000005</v>
-      </c>
-      <c r="D5433">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5434" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5434">
-        <v>5432</v>
-      </c>
-      <c r="B5434" s="1">
-        <v>45491.072916666664</v>
-      </c>
-      <c r="C5434">
-        <v>72.891000000000005</v>
-      </c>
-      <c r="D5434">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5435" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5435">
-        <v>5433</v>
-      </c>
-      <c r="B5435" s="1">
-        <v>45491.083333333336</v>
-      </c>
-      <c r="C5435">
-        <v>72.545000000000002</v>
-      </c>
-      <c r="D5435">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5436" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5436">
-        <v>5434</v>
-      </c>
-      <c r="B5436" s="1">
-        <v>45491.09375</v>
-      </c>
-      <c r="C5436">
-        <v>72.372</v>
-      </c>
-      <c r="D5436">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5437" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5437">
-        <v>5435</v>
-      </c>
-      <c r="B5437" s="1">
-        <v>45491.104166666664</v>
-      </c>
-      <c r="C5437">
-        <v>72.372</v>
-      </c>
-      <c r="D5437">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5438" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5438">
-        <v>5436</v>
-      </c>
-      <c r="B5438" s="1">
-        <v>45491.114583333336</v>
-      </c>
-      <c r="C5438">
-        <v>72.372</v>
-      </c>
-      <c r="D5438">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5439" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5439">
-        <v>5437</v>
-      </c>
-      <c r="B5439" s="1">
-        <v>45491.125</v>
-      </c>
-      <c r="C5439">
-        <v>72.372</v>
-      </c>
-      <c r="D5439">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5440" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5440">
-        <v>5438</v>
-      </c>
-      <c r="B5440" s="1">
-        <v>45491.135416666664</v>
-      </c>
-      <c r="C5440">
-        <v>72.372</v>
-      </c>
-      <c r="D5440">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5441" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5441">
-        <v>5439</v>
-      </c>
-      <c r="B5441" s="1">
-        <v>45491.145833333336</v>
-      </c>
-      <c r="C5441">
-        <v>72.372</v>
-      </c>
-      <c r="D5441">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5442" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5442">
-        <v>5440</v>
-      </c>
-      <c r="B5442" s="1">
-        <v>45491.15625</v>
-      </c>
-      <c r="C5442">
-        <v>72.372</v>
-      </c>
-      <c r="D5442">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5443" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5443">
-        <v>5441</v>
-      </c>
-      <c r="B5443" s="1">
-        <v>45491.166666666664</v>
-      </c>
-      <c r="C5443">
-        <v>72.198999999999998</v>
-      </c>
-      <c r="D5443">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5444" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5444">
-        <v>5442</v>
-      </c>
-      <c r="B5444" s="1">
-        <v>45491.177083333336</v>
-      </c>
-      <c r="C5444">
-        <v>72.198999999999998</v>
-      </c>
-      <c r="D5444">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5445" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5445">
-        <v>5443</v>
-      </c>
-      <c r="B5445" s="1">
-        <v>45491.1875</v>
-      </c>
-      <c r="C5445">
-        <v>72.198999999999998</v>
-      </c>
-      <c r="D5445">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5446" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5446">
-        <v>5444</v>
-      </c>
-      <c r="B5446" s="1">
-        <v>45491.197916666664</v>
-      </c>
-      <c r="C5446">
-        <v>72.028000000000006</v>
-      </c>
-      <c r="D5446">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5447" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5447">
-        <v>5445</v>
-      </c>
-      <c r="B5447" s="1">
-        <v>45491.208333333336</v>
-      </c>
-      <c r="C5447">
-        <v>72.028000000000006</v>
-      </c>
-      <c r="D5447">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5448" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5448">
-        <v>5446</v>
-      </c>
-      <c r="B5448" s="1">
-        <v>45491.21875</v>
-      </c>
-      <c r="C5448">
-        <v>71.855999999999995</v>
-      </c>
-      <c r="D5448">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5449" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5449">
-        <v>5447</v>
-      </c>
-      <c r="B5449" s="1">
-        <v>45491.229166666664</v>
-      </c>
-      <c r="C5449">
-        <v>72.028000000000006</v>
-      </c>
-      <c r="D5449">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5450" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5450">
-        <v>5448</v>
-      </c>
-      <c r="B5450" s="1">
-        <v>45491.239583333336</v>
-      </c>
-      <c r="C5450">
-        <v>72.198999999999998</v>
-      </c>
-      <c r="D5450">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5451" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5451">
-        <v>5449</v>
-      </c>
-      <c r="B5451" s="1">
-        <v>45491.25</v>
-      </c>
-      <c r="C5451">
-        <v>72.545000000000002</v>
-      </c>
-      <c r="D5451">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5452" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5452">
-        <v>5450</v>
-      </c>
-      <c r="B5452" s="1">
-        <v>45491.260416666664</v>
-      </c>
-      <c r="C5452">
-        <v>72.718000000000004</v>
-      </c>
-      <c r="D5452">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5453" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5453">
-        <v>5451</v>
-      </c>
-      <c r="B5453" s="1">
-        <v>45491.270833333336</v>
-      </c>
-      <c r="C5453">
-        <v>73.061999999999998</v>
-      </c>
-      <c r="D5453">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5454" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5454">
-        <v>5452</v>
-      </c>
-      <c r="B5454" s="1">
-        <v>45491.28125</v>
-      </c>
-      <c r="C5454">
-        <v>73.233999999999995</v>
-      </c>
-      <c r="D5454">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5455" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5455">
-        <v>5453</v>
-      </c>
-      <c r="B5455" s="1">
-        <v>45491.291666666664</v>
-      </c>
-      <c r="C5455">
-        <v>73.406999999999996</v>
-      </c>
-      <c r="D5455">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5456" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5456">
-        <v>5454</v>
-      </c>
-      <c r="B5456" s="1">
-        <v>45491.302083333336</v>
-      </c>
-      <c r="C5456">
-        <v>73.58</v>
-      </c>
-      <c r="D5456">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5457" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5457">
-        <v>5455</v>
-      </c>
-      <c r="B5457" s="1">
-        <v>45491.3125</v>
-      </c>
-      <c r="C5457">
-        <v>73.58</v>
-      </c>
-      <c r="D5457">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5458" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5458">
-        <v>5456</v>
-      </c>
-      <c r="B5458" s="1">
-        <v>45491.322916666664</v>
-      </c>
-      <c r="C5458">
-        <v>73.926000000000002</v>
-      </c>
-      <c r="D5458">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5459" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5459">
-        <v>5457</v>
-      </c>
-      <c r="B5459" s="1">
-        <v>45491.333333333336</v>
-      </c>
-      <c r="C5459">
-        <v>72.545000000000002</v>
-      </c>
-      <c r="D5459">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5460" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5460">
-        <v>5458</v>
-      </c>
-      <c r="B5460" s="1">
-        <v>45491.34375</v>
-      </c>
-      <c r="C5460">
-        <v>68.076999999999998</v>
-      </c>
-      <c r="D5460">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5461" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5461">
-        <v>5459</v>
-      </c>
-      <c r="B5461" s="1">
-        <v>45491.347002314818</v>
-      </c>
-      <c r="E5461" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5462" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5462">
-        <v>5460</v>
-      </c>
-      <c r="B5462" s="1">
-        <v>45491.34715277778</v>
-      </c>
-      <c r="F5462" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5463" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5463">
-        <v>5461</v>
-      </c>
-      <c r="B5463" s="1">
-        <v>45491.347187500003</v>
-      </c>
-      <c r="E5463" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5463" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5464" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5464">
-        <v>5462</v>
-      </c>
-      <c r="B5464" s="1">
-        <v>45491.347314814811</v>
-      </c>
-      <c r="H5464" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5464" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -77437,7 +76269,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -77673,15 +76505,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="94106a43-364c-4431-a764-9e3dd608a139" xsi:nil="true"/>
@@ -77692,14 +76515,49 @@
 </p:properties>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06528CA2-2701-477A-A357-2EC8320F8018}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{06528CA2-2701-477A-A357-2EC8320F8018}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D062D618-020A-40AF-9A14-64A1DE607C28}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBC52072-6561-4179-8219-7D2116E2351F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="94106a43-364c-4431-a764-9e3dd608a139"/>
+    <ds:schemaRef ds:uri="6f61aad6-7023-4354-b4be-ac6efb5d4555"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EBC52072-6561-4179-8219-7D2116E2351F}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D062D618-020A-40AF-9A14-64A1DE607C28}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>